--- a/output/StructureDefinition-mental-patient.xlsx
+++ b/output/StructureDefinition-mental-patient.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-18T07:55:32+05:45</t>
+    <t>2025-05-20T08:23:51+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4982,7 +4982,7 @@
         <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>83</v>

--- a/output/StructureDefinition-mental-patient.xlsx
+++ b/output/StructureDefinition-mental-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="524">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T08:23:51+05:45</t>
+    <t>2025-05-20T11:38:44+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -506,9 +506,6 @@
   </si>
   <si>
     <t>Patient.identifier</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
@@ -959,9 +956,6 @@
   </si>
   <si>
     <t>Patient.telecom</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">ContactPoint
@@ -3330,7 +3324,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>82</v>
@@ -3345,17 +3339,17 @@
         <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>83</v>
@@ -3419,16 +3413,16 @@
         <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>83</v>
@@ -3436,10 +3430,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3462,13 +3456,13 @@
         <v>83</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3519,7 +3513,7 @@
         <v>83</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3534,7 +3528,7 @@
         <v>83</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>83</v>
@@ -3551,10 +3545,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3580,10 +3574,10 @@
         <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N14" t="s" s="2">
         <v>153</v>
@@ -3627,7 +3621,7 @@
         <v>139</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>83</v>
@@ -3636,7 +3630,7 @@
         <v>140</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -3651,7 +3645,7 @@
         <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>83</v>
@@ -3668,10 +3662,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3697,16 +3691,16 @@
         <v>111</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>83</v>
@@ -3731,31 +3725,31 @@
         <v>83</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -3770,7 +3764,7 @@
         <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>83</v>
@@ -3787,10 +3781,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3813,19 +3807,19 @@
         <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>83</v>
@@ -3850,31 +3844,31 @@
         <v>83</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -3889,7 +3883,7 @@
         <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>83</v>
@@ -3898,7 +3892,7 @@
         <v>83</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>83</v>
@@ -3906,10 +3900,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3935,16 +3929,16 @@
         <v>105</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>83</v>
@@ -3957,43 +3951,43 @@
         <v>83</v>
       </c>
       <c r="T17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4008,16 +4002,16 @@
         <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>83</v>
@@ -4025,10 +4019,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4051,16 +4045,16 @@
         <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4074,43 +4068,43 @@
         <v>83</v>
       </c>
       <c r="T18" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4125,16 +4119,16 @@
         <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>83</v>
@@ -4142,10 +4136,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4168,13 +4162,13 @@
         <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4225,7 +4219,7 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4240,16 +4234,16 @@
         <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>83</v>
@@ -4257,10 +4251,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4283,16 +4277,16 @@
         <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4342,7 +4336,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4357,16 +4351,16 @@
         <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4374,10 +4368,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4400,26 +4394,26 @@
         <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="O21" t="s" s="2">
+      <c r="P21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q21" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="P21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="R21" t="s" s="2">
         <v>83</v>
       </c>
@@ -4463,7 +4457,7 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4478,13 +4472,13 @@
         <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>83</v>
@@ -4495,10 +4489,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4521,19 +4515,19 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
@@ -4582,7 +4576,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4597,16 +4591,16 @@
         <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>83</v>
@@ -4614,10 +4608,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4640,13 +4634,13 @@
         <v>83</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4697,7 +4691,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4712,7 +4706,7 @@
         <v>83</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>83</v>
@@ -4729,10 +4723,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4758,10 +4752,10 @@
         <v>136</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>153</v>
@@ -4805,7 +4799,7 @@
         <v>139</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>83</v>
@@ -4814,7 +4808,7 @@
         <v>140</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4829,7 +4823,7 @@
         <v>142</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>83</v>
@@ -4846,10 +4840,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4875,16 +4869,16 @@
         <v>111</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -4909,31 +4903,31 @@
         <v>83</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4948,16 +4942,16 @@
         <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>83</v>
@@ -4965,10 +4959,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4991,19 +4985,19 @@
         <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5052,7 +5046,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5067,16 +5061,16 @@
         <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>83</v>
@@ -5084,14 +5078,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5110,16 +5104,16 @@
         <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5169,7 +5163,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5184,16 +5178,16 @@
         <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
@@ -5201,14 +5195,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5227,16 +5221,16 @@
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5286,7 +5280,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5301,16 +5295,16 @@
         <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>83</v>
@@ -5318,10 +5312,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5344,13 +5338,13 @@
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5401,7 +5395,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5416,16 +5410,16 @@
         <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
@@ -5433,10 +5427,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5459,13 +5453,13 @@
         <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5516,7 +5510,7 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5531,16 +5525,16 @@
         <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
@@ -5548,10 +5542,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5574,17 +5568,17 @@
         <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5633,7 +5627,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5648,16 +5642,16 @@
         <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -5665,10 +5659,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5676,7 +5670,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>304</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>82</v>
@@ -5691,19 +5685,19 @@
         <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>83</v>
@@ -5752,7 +5746,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5767,16 +5761,16 @@
         <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
@@ -5784,10 +5778,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5810,13 +5804,13 @@
         <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5867,7 +5861,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -5882,7 +5876,7 @@
         <v>83</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>83</v>
@@ -5899,10 +5893,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5928,10 +5922,10 @@
         <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>153</v>
@@ -5975,7 +5969,7 @@
         <v>139</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>83</v>
@@ -5984,7 +5978,7 @@
         <v>140</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -5999,7 +5993,7 @@
         <v>142</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>83</v>
@@ -6016,10 +6010,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6045,10 +6039,10 @@
         <v>111</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6075,31 +6069,31 @@
         <v>83</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6108,13 +6102,13 @@
         <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>83</v>
@@ -6123,7 +6117,7 @@
         <v>83</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6131,10 +6125,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6157,19 +6151,19 @@
         <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6218,7 +6212,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6233,7 +6227,7 @@
         <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>83</v>
@@ -6242,7 +6236,7 @@
         <v>83</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6250,10 +6244,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6279,16 +6273,16 @@
         <v>111</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -6313,31 +6307,31 @@
         <v>83</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6352,7 +6346,7 @@
         <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>83</v>
@@ -6361,7 +6355,7 @@
         <v>83</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -6369,10 +6363,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6395,16 +6389,16 @@
         <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6454,7 +6448,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6469,7 +6463,7 @@
         <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>83</v>
@@ -6478,7 +6472,7 @@
         <v>83</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6486,10 +6480,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6512,13 +6506,13 @@
         <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6569,7 +6563,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6584,7 +6578,7 @@
         <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>83</v>
@@ -6601,10 +6595,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6630,16 +6624,16 @@
         <v>111</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>83</v>
@@ -6664,13 +6658,13 @@
         <v>83</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>83</v>
@@ -6688,7 +6682,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6703,16 +6697,16 @@
         <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -6720,10 +6714,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6746,19 +6740,19 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -6807,7 +6801,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6822,27 +6816,27 @@
         <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>370</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6865,19 +6859,19 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
@@ -6926,7 +6920,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -6941,16 +6935,16 @@
         <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -6958,10 +6952,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6984,19 +6978,19 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
@@ -7045,7 +7039,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7060,16 +7054,16 @@
         <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7077,10 +7071,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7103,17 +7097,17 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
@@ -7138,13 +7132,13 @@
         <v>83</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>83</v>
@@ -7162,7 +7156,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7177,16 +7171,16 @@
         <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7194,10 +7188,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7220,19 +7214,19 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>83</v>
@@ -7281,7 +7275,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7296,16 +7290,16 @@
         <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7313,10 +7307,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7339,19 +7333,19 @@
         <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7400,7 +7394,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7415,16 +7409,16 @@
         <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7432,10 +7426,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7458,19 +7452,19 @@
         <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
@@ -7519,7 +7513,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7531,13 +7525,13 @@
         <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>83</v>
@@ -7551,10 +7545,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7577,13 +7571,13 @@
         <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7634,7 +7628,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7649,7 +7643,7 @@
         <v>83</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>83</v>
@@ -7666,10 +7660,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7695,10 +7689,10 @@
         <v>136</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>153</v>
@@ -7751,7 +7745,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7766,7 +7760,7 @@
         <v>142</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>83</v>
@@ -7783,14 +7777,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7812,10 +7806,10 @@
         <v>136</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>153</v>
@@ -7870,7 +7864,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -7902,10 +7896,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7928,17 +7922,17 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -7963,13 +7957,13 @@
         <v>83</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>83</v>
@@ -7987,7 +7981,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8002,16 +7996,16 @@
         <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8019,10 +8013,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8045,17 +8039,17 @@
         <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8104,7 +8098,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8119,16 +8113,16 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8136,10 +8130,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8162,19 +8156,19 @@
         <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="O53" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8223,7 +8217,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8238,16 +8232,16 @@
         <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -8255,10 +8249,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8281,17 +8275,17 @@
         <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8340,7 +8334,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8355,16 +8349,16 @@
         <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -8372,10 +8366,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8401,14 +8395,14 @@
         <v>111</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8433,13 +8427,13 @@
         <v>83</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>83</v>
@@ -8457,7 +8451,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8472,16 +8466,16 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
@@ -8489,10 +8483,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8515,17 +8509,17 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -8574,7 +8568,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8583,22 +8577,22 @@
         <v>91</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -8606,10 +8600,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8632,13 +8626,13 @@
         <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8689,7 +8683,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8704,10 +8698,10 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>83</v>
@@ -8721,10 +8715,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8747,19 +8741,19 @@
         <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -8808,7 +8802,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -8823,10 +8817,10 @@
         <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>83</v>
@@ -8840,10 +8834,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8866,13 +8860,13 @@
         <v>83</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8923,7 +8917,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -8938,7 +8932,7 @@
         <v>83</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>83</v>
@@ -8955,10 +8949,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8984,10 +8978,10 @@
         <v>136</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>153</v>
@@ -9040,7 +9034,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9055,7 +9049,7 @@
         <v>142</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>83</v>
@@ -9072,14 +9066,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9101,10 +9095,10 @@
         <v>136</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>153</v>
@@ -9159,7 +9153,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9191,10 +9185,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9217,19 +9211,19 @@
         <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -9278,7 +9272,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>91</v>
@@ -9293,16 +9287,16 @@
         <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
@@ -9310,10 +9304,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9336,19 +9330,19 @@
         <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
@@ -9397,7 +9391,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9412,16 +9406,16 @@
         <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -9429,14 +9423,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9455,16 +9449,16 @@
         <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9514,7 +9508,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9529,16 +9523,16 @@
         <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -9546,10 +9540,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9572,19 +9566,19 @@
         <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>83</v>
@@ -9633,7 +9627,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -9648,10 +9642,10 @@
         <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>83</v>
@@ -9665,10 +9659,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9691,19 +9685,19 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>83</v>
@@ -9752,7 +9746,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -9767,10 +9761,10 @@
         <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>83</v>
@@ -9784,10 +9778,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9810,13 +9804,13 @@
         <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9867,7 +9861,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -9882,7 +9876,7 @@
         <v>83</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>83</v>
@@ -9899,10 +9893,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9928,10 +9922,10 @@
         <v>136</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>153</v>
@@ -9984,7 +9978,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -9999,7 +9993,7 @@
         <v>142</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>83</v>
@@ -10016,14 +10010,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10045,10 +10039,10 @@
         <v>136</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>153</v>
@@ -10103,7 +10097,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10135,10 +10129,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10161,16 +10155,16 @@
         <v>92</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10220,7 +10214,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>91</v>
@@ -10235,16 +10229,16 @@
         <v>103</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
@@ -10252,10 +10246,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10281,10 +10275,10 @@
         <v>111</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10311,13 +10305,13 @@
         <v>83</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>83</v>
@@ -10335,7 +10329,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>91</v>
@@ -10350,10 +10344,10 @@
         <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>83</v>
